--- a/20160411 - 005/running_logs/logs.xlsx
+++ b/20160411 - 005/running_logs/logs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="40">
   <si>
     <t>Time</t>
   </si>
@@ -113,6 +113,27 @@
   </si>
   <si>
     <t>20160413_122914</t>
+  </si>
+  <si>
+    <t>20160413_152701</t>
+  </si>
+  <si>
+    <t>convert unicode to ascii, space after punctuation, convert to lower, remove multiple spaces, trim "space" and ",", remove break line</t>
+  </si>
+  <si>
+    <t>2 layers: [100-Sigmoid, 3-Softmax], learning_rate: 0.01, learning_rule: adagrad, n_iterator: 2000</t>
+  </si>
+  <si>
+    <t>20160413_154534</t>
+  </si>
+  <si>
+    <t>20160413_160441</t>
+  </si>
+  <si>
+    <t>20160413_162402</t>
+  </si>
+  <si>
+    <t>20160413_164330</t>
   </si>
 </sst>
 </file>
@@ -444,7 +465,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -959,6 +980,166 @@
         <v>0.395833333333333</v>
       </c>
     </row>
+    <row r="17" spans="1:10">
+      <c r="A17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17">
+        <v>1113.332</v>
+      </c>
+      <c r="C17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" t="s">
+        <v>35</v>
+      </c>
+      <c r="G17">
+        <v>0.99</v>
+      </c>
+      <c r="H17">
+        <v>0.99009900990099</v>
+      </c>
+      <c r="I17" t="s">
+        <v>14</v>
+      </c>
+      <c r="J17">
+        <v>0.46875</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18">
+        <v>1146.673</v>
+      </c>
+      <c r="C18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" t="s">
+        <v>35</v>
+      </c>
+      <c r="G18">
+        <v>0.988</v>
+      </c>
+      <c r="H18">
+        <v>0.99009900990099</v>
+      </c>
+      <c r="I18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J18">
+        <v>0.46875</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19">
+        <v>1161.038</v>
+      </c>
+      <c r="C19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" t="s">
+        <v>35</v>
+      </c>
+      <c r="G19">
+        <v>0.988</v>
+      </c>
+      <c r="H19">
+        <v>0.99009900990099</v>
+      </c>
+      <c r="I19" t="s">
+        <v>14</v>
+      </c>
+      <c r="J19">
+        <v>0.270833333333333</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20">
+        <v>1167.932</v>
+      </c>
+      <c r="C20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" t="s">
+        <v>35</v>
+      </c>
+      <c r="G20">
+        <v>0.990666666666667</v>
+      </c>
+      <c r="H20">
+        <v>0.996699669966997</v>
+      </c>
+      <c r="I20" t="s">
+        <v>14</v>
+      </c>
+      <c r="J20">
+        <v>0.387755102040816</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21">
+        <v>1176.786</v>
+      </c>
+      <c r="C21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" t="s">
+        <v>35</v>
+      </c>
+      <c r="G21">
+        <v>0.992666666666667</v>
+      </c>
+      <c r="H21">
+        <v>0.993399339933993</v>
+      </c>
+      <c r="I21" t="s">
+        <v>14</v>
+      </c>
+      <c r="J21">
+        <v>0.422680412371134</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
